--- a/data/raw/BEST Math Extract.xlsx
+++ b/data/raw/BEST Math Extract.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e250984e13e69121/Documents/Projects/fl-doe-standards all files copy 02212025/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e250984e13e69121/Documents/Projects/fl-doe-standards/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C4A0C277-592D-4AE4-8220-CF2AF01A2443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D70692F7-FA3E-49EB-B803-45BFAE9B1C8F}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{C4A0C277-592D-4AE4-8220-CF2AF01A2443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2CE0B16-E593-4851-93B5-03B025827D00}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{EAF8EC7B-DB97-4AE4-B6FC-B3DC207E01CE}"/>
   </bookViews>
@@ -5924,8 +5924,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>713</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5985,8 +5985,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>738</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>547688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6017,7 +6017,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1090613" y="211740750"/>
-          <a:ext cx="12325350" cy="4743450"/>
+          <a:ext cx="12325350" cy="4743451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6046,8 +6046,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>713</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6107,8 +6107,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>713</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>699</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6168,8 +6168,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>713</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>699</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6229,8 +6229,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>713</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>699</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6281,6 +6281,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6600,11 +6604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D65300-00A7-466B-A236-C60FEC0F2948}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6662,7 +6665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="19"/>
       <c r="B5" s="4"/>
       <c r="C5" s="19"/>
@@ -6694,7 +6697,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -6705,7 +6708,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="6"/>
       <c r="C7" s="19"/>
@@ -6714,7 +6717,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>12</v>
@@ -6725,7 +6728,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
@@ -6736,7 +6739,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
@@ -6747,7 +6750,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -6758,7 +6761,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
@@ -6769,7 +6772,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="19"/>
@@ -6778,7 +6781,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="4"/>
       <c r="C14" s="19"/>
@@ -6787,7 +6790,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="20"/>
       <c r="B15" s="8"/>
       <c r="C15" s="20"/>
@@ -6796,7 +6799,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="19"/>
@@ -6828,7 +6831,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
@@ -6839,7 +6842,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="6"/>
       <c r="C19" s="19"/>
@@ -6848,7 +6851,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>25</v>
@@ -6859,7 +6862,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>26</v>
@@ -6870,7 +6873,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>27</v>
@@ -6881,7 +6884,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
         <v>28</v>
@@ -6892,7 +6895,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>29</v>
@@ -6903,7 +6906,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="20"/>
       <c r="B25" s="9"/>
       <c r="C25" s="20"/>
@@ -6912,7 +6915,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
         <v>31</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="4"/>
       <c r="C27" s="19"/>
@@ -6944,7 +6947,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="5" t="s">
         <v>33</v>
@@ -6955,7 +6958,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="6"/>
       <c r="C29" s="19"/>
@@ -6964,7 +6967,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="B30" s="7" t="s">
         <v>34</v>
@@ -6975,7 +6978,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="B31" s="7" t="s">
         <v>35</v>
@@ -6986,7 +6989,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="19"/>
       <c r="B32" s="7" t="s">
         <v>36</v>
@@ -6997,7 +7000,7 @@
       <c r="F32" s="19"/>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
         <v>37</v>
@@ -7008,7 +7011,7 @@
       <c r="F33" s="19"/>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A34" s="19"/>
       <c r="B34" s="7" t="s">
         <v>38</v>
@@ -7019,7 +7022,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="9"/>
       <c r="C35" s="20"/>
@@ -7028,7 +7031,7 @@
       <c r="F35" s="20"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
         <v>40</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="4"/>
       <c r="C37" s="19"/>
@@ -7060,7 +7063,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A38" s="19"/>
       <c r="B38" s="5" t="s">
         <v>42</v>
@@ -7071,7 +7074,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="6"/>
       <c r="C39" s="19"/>
@@ -7080,7 +7083,7 @@
       <c r="F39" s="19"/>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A40" s="19"/>
       <c r="B40" s="7" t="s">
         <v>43</v>
@@ -7091,7 +7094,7 @@
       <c r="F40" s="19"/>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="7" t="s">
         <v>44</v>
@@ -7102,7 +7105,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A42" s="19"/>
       <c r="B42" s="7" t="s">
         <v>45</v>
@@ -7113,7 +7116,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="7" t="s">
         <v>46</v>
@@ -7124,7 +7127,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="19"/>
       <c r="B44" s="7" t="s">
         <v>47</v>
@@ -7135,7 +7138,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="7" t="s">
         <v>48</v>
@@ -7146,7 +7149,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="20"/>
       <c r="B46" s="9"/>
       <c r="C46" s="20"/>
@@ -7155,7 +7158,7 @@
       <c r="F46" s="20"/>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A47" s="18" t="s">
         <v>50</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="19"/>
       <c r="B48" s="4"/>
       <c r="C48" s="19"/>
@@ -7187,7 +7190,7 @@
       <c r="F48" s="19"/>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="5" t="s">
         <v>52</v>
@@ -7198,7 +7201,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="22"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="19"/>
       <c r="B50" s="6"/>
       <c r="C50" s="19"/>
@@ -7207,7 +7210,7 @@
       <c r="F50" s="19"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="7" t="s">
         <v>53</v>
@@ -7218,7 +7221,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A52" s="19"/>
       <c r="B52" s="7" t="s">
         <v>54</v>
@@ -7229,7 +7232,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="19"/>
       <c r="B53" s="7" t="s">
         <v>55</v>
@@ -7240,7 +7243,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="19"/>
       <c r="B54" s="7" t="s">
         <v>56</v>
@@ -7251,7 +7254,7 @@
       <c r="F54" s="19"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="19"/>
       <c r="B55" s="7" t="s">
         <v>57</v>
@@ -7262,7 +7265,7 @@
       <c r="F55" s="19"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A56" s="19"/>
       <c r="B56" s="7" t="s">
         <v>58</v>
@@ -7273,7 +7276,7 @@
       <c r="F56" s="19"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="20"/>
       <c r="B57" s="9"/>
       <c r="C57" s="20"/>
@@ -7282,7 +7285,7 @@
       <c r="F57" s="20"/>
       <c r="G57" s="23"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="18" t="s">
         <v>60</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="19"/>
       <c r="B59" s="4"/>
       <c r="C59" s="19"/>
@@ -7314,7 +7317,7 @@
       <c r="F59" s="19"/>
       <c r="G59" s="22"/>
     </row>
-    <row r="60" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A60" s="19"/>
       <c r="B60" s="5" t="s">
         <v>62</v>
@@ -7325,7 +7328,7 @@
       <c r="F60" s="19"/>
       <c r="G60" s="22"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="19"/>
       <c r="B61" s="6"/>
       <c r="C61" s="19"/>
@@ -7334,7 +7337,7 @@
       <c r="F61" s="19"/>
       <c r="G61" s="22"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="19"/>
       <c r="B62" s="7" t="s">
         <v>63</v>
@@ -7345,7 +7348,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="22"/>
     </row>
-    <row r="63" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A63" s="19"/>
       <c r="B63" s="7" t="s">
         <v>64</v>
@@ -7356,7 +7359,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="19"/>
       <c r="B64" s="7" t="s">
         <v>65</v>
@@ -7367,7 +7370,7 @@
       <c r="F64" s="19"/>
       <c r="G64" s="22"/>
     </row>
-    <row r="65" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A65" s="19"/>
       <c r="B65" s="7" t="s">
         <v>66</v>
@@ -7378,7 +7381,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="22"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="19"/>
       <c r="B66" s="7" t="s">
         <v>67</v>
@@ -7389,7 +7392,7 @@
       <c r="F66" s="19"/>
       <c r="G66" s="22"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="20"/>
       <c r="B67" s="9"/>
       <c r="C67" s="20"/>
@@ -7398,7 +7401,7 @@
       <c r="F67" s="20"/>
       <c r="G67" s="23"/>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="18" t="s">
         <v>69</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="19"/>
       <c r="B69" s="4"/>
       <c r="C69" s="19"/>
@@ -7430,7 +7433,7 @@
       <c r="F69" s="19"/>
       <c r="G69" s="22"/>
     </row>
-    <row r="70" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A70" s="19"/>
       <c r="B70" s="5" t="s">
         <v>71</v>
@@ -7441,7 +7444,7 @@
       <c r="F70" s="19"/>
       <c r="G70" s="22"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="19"/>
       <c r="B71" s="6"/>
       <c r="C71" s="19"/>
@@ -7450,7 +7453,7 @@
       <c r="F71" s="19"/>
       <c r="G71" s="22"/>
     </row>
-    <row r="72" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A72" s="19"/>
       <c r="B72" s="7" t="s">
         <v>72</v>
@@ -7461,7 +7464,7 @@
       <c r="F72" s="19"/>
       <c r="G72" s="22"/>
     </row>
-    <row r="73" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A73" s="19"/>
       <c r="B73" s="7" t="s">
         <v>73</v>
@@ -7472,7 +7475,7 @@
       <c r="F73" s="19"/>
       <c r="G73" s="22"/>
     </row>
-    <row r="74" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A74" s="19"/>
       <c r="B74" s="7" t="s">
         <v>74</v>
@@ -7483,7 +7486,7 @@
       <c r="F74" s="19"/>
       <c r="G74" s="22"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="20"/>
       <c r="B75" s="9"/>
       <c r="C75" s="20"/>
@@ -7492,7 +7495,7 @@
       <c r="F75" s="20"/>
       <c r="G75" s="23"/>
     </row>
-    <row r="76" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="s">
         <v>76</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="s">
         <v>81</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A78" s="10" t="s">
         <v>83</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
         <v>85</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A80" s="10" t="s">
         <v>88</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="s">
         <v>92</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A82" s="10" t="s">
         <v>96</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
         <v>98</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A84" s="10" t="s">
         <v>100</v>
       </c>
@@ -7699,7 +7702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="s">
         <v>102</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A86" s="10" t="s">
         <v>104</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A87" s="10" t="s">
         <v>108</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A88" s="10" t="s">
         <v>110</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A90" s="10" t="s">
         <v>116</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
         <v>118</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A92" s="10" t="s">
         <v>120</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
         <v>122</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A94" s="10" t="s">
         <v>125</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="s">
         <v>127</v>
       </c>
@@ -7952,7 +7955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A96" s="10" t="s">
         <v>129</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A97" s="10" t="s">
         <v>132</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A98" s="10" t="s">
         <v>134</v>
       </c>
@@ -8021,7 +8024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
         <v>137</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A100" s="10" t="s">
         <v>138</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A101" s="10" t="s">
         <v>141</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A102" s="10" t="s">
         <v>143</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A103" s="10" t="s">
         <v>145</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A104" s="10" t="s">
         <v>148</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A105" s="10" t="s">
         <v>150</v>
       </c>
@@ -8182,7 +8185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A106" s="10" t="s">
         <v>154</v>
       </c>
@@ -8205,7 +8208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A107" s="10" t="s">
         <v>157</v>
       </c>
@@ -8228,7 +8231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A108" s="10" t="s">
         <v>159</v>
       </c>
@@ -8251,7 +8254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A109" s="10" t="s">
         <v>161</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A110" s="10" t="s">
         <v>163</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A111" s="10" t="s">
         <v>166</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="s">
         <v>168</v>
       </c>
@@ -8343,7 +8346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A113" s="10" t="s">
         <v>171</v>
       </c>
@@ -8366,7 +8369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A114" s="10" t="s">
         <v>173</v>
       </c>
@@ -8389,7 +8392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A115" s="10" t="s">
         <v>175</v>
       </c>
@@ -8412,7 +8415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A116" s="10" t="s">
         <v>178</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
         <v>180</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A118" s="10" t="s">
         <v>182</v>
       </c>
@@ -8481,7 +8484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="s">
         <v>184</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A120" s="10" t="s">
         <v>187</v>
       </c>
@@ -8527,7 +8530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>189</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A122" s="10" t="s">
         <v>191</v>
       </c>
@@ -8573,7 +8576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="s">
         <v>193</v>
       </c>
@@ -8596,7 +8599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A124" s="10" t="s">
         <v>195</v>
       </c>
@@ -8619,7 +8622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A125" s="10" t="s">
         <v>198</v>
       </c>
@@ -8642,7 +8645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A126" s="10" t="s">
         <v>201</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="s">
         <v>203</v>
       </c>
@@ -8688,7 +8691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A128" s="10" t="s">
         <v>206</v>
       </c>
@@ -8711,7 +8714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="s">
         <v>208</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A130" s="10" t="s">
         <v>211</v>
       </c>
@@ -8757,7 +8760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A131" s="10" t="s">
         <v>213</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A132" s="10" t="s">
         <v>216</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A133" s="10" t="s">
         <v>218</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A134" s="10" t="s">
         <v>221</v>
       </c>
@@ -8849,7 +8852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="s">
         <v>223</v>
       </c>
@@ -8872,7 +8875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A136" s="10" t="s">
         <v>225</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A137" s="10" t="s">
         <v>228</v>
       </c>
@@ -8918,7 +8921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A138" s="10" t="s">
         <v>230</v>
       </c>
@@ -8941,7 +8944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="s">
         <v>233</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A140" s="10" t="s">
         <v>235</v>
       </c>
@@ -8987,7 +8990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A141" s="10" t="s">
         <v>237</v>
       </c>
@@ -9010,7 +9013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A142" s="10" t="s">
         <v>240</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A143" s="10" t="s">
         <v>242</v>
       </c>
@@ -9056,7 +9059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A144" s="10" t="s">
         <v>245</v>
       </c>
@@ -9079,7 +9082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="10" t="s">
         <v>247</v>
       </c>
@@ -9102,7 +9105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="10" t="s">
         <v>249</v>
       </c>
@@ -9125,7 +9128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
         <v>251</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A148" s="10" t="s">
         <v>254</v>
       </c>
@@ -9171,7 +9174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A149" s="10" t="s">
         <v>256</v>
       </c>
@@ -9194,7 +9197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A150" s="10" t="s">
         <v>258</v>
       </c>
@@ -9217,7 +9220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A151" s="10" t="s">
         <v>260</v>
       </c>
@@ -9240,7 +9243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A152" s="10" t="s">
         <v>263</v>
       </c>
@@ -9263,7 +9266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A153" s="10" t="s">
         <v>265</v>
       </c>
@@ -9286,7 +9289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A154" s="10" t="s">
         <v>268</v>
       </c>
@@ -9309,7 +9312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A155" s="10" t="s">
         <v>270</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A156" s="10" t="s">
         <v>272</v>
       </c>
@@ -9355,7 +9358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A157" s="10" t="s">
         <v>275</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A158" s="10" t="s">
         <v>277</v>
       </c>
@@ -9401,7 +9404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A159" s="10" t="s">
         <v>279</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A160" s="10" t="s">
         <v>282</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A161" s="10" t="s">
         <v>284</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A162" s="10" t="s">
         <v>287</v>
       </c>
@@ -9493,7 +9496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="s">
         <v>289</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A164" s="10" t="s">
         <v>291</v>
       </c>
@@ -9539,7 +9542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A165" s="10" t="s">
         <v>294</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A166" s="10" t="s">
         <v>296</v>
       </c>
@@ -9585,7 +9588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A167" s="10" t="s">
         <v>299</v>
       </c>
@@ -9608,7 +9611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A168" s="10" t="s">
         <v>301</v>
       </c>
@@ -9631,7 +9634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A169" s="10" t="s">
         <v>303</v>
       </c>
@@ -9654,7 +9657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A170" s="10" t="s">
         <v>306</v>
       </c>
@@ -9677,7 +9680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
         <v>308</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A172" s="10" t="s">
         <v>310</v>
       </c>
@@ -9723,7 +9726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A173" s="10" t="s">
         <v>312</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A174" s="10" t="s">
         <v>315</v>
       </c>
@@ -9769,7 +9772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A175" s="10" t="s">
         <v>317</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A176" s="10" t="s">
         <v>320</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A177" s="10" t="s">
         <v>322</v>
       </c>
@@ -9838,7 +9841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A178" s="10" t="s">
         <v>325</v>
       </c>
@@ -9861,7 +9864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" s="10" t="s">
         <v>327</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A180" s="10" t="s">
         <v>329</v>
       </c>
@@ -9907,7 +9910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A181" s="10" t="s">
         <v>331</v>
       </c>
@@ -9930,7 +9933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A182" s="10" t="s">
         <v>334</v>
       </c>
@@ -9953,7 +9956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A183" s="10" t="s">
         <v>336</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A184" s="10" t="s">
         <v>338</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A185" s="10" t="s">
         <v>340</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A186" s="10" t="s">
         <v>343</v>
       </c>
@@ -10045,7 +10048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A187" s="10" t="s">
         <v>345</v>
       </c>
@@ -10068,7 +10071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A188" s="10" t="s">
         <v>347</v>
       </c>
@@ -10091,7 +10094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="s">
         <v>350</v>
       </c>
@@ -10114,7 +10117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A190" s="10" t="s">
         <v>352</v>
       </c>
@@ -10137,7 +10140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A191" s="10" t="s">
         <v>355</v>
       </c>
@@ -10160,7 +10163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A192" s="10" t="s">
         <v>357</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A193" s="10" t="s">
         <v>360</v>
       </c>
@@ -10206,7 +10209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A194" s="10" t="s">
         <v>362</v>
       </c>
@@ -10229,7 +10232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A195" s="10" t="s">
         <v>364</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A196" s="10" t="s">
         <v>367</v>
       </c>
@@ -10275,7 +10278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A197" s="10" t="s">
         <v>369</v>
       </c>
@@ -10298,7 +10301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A198" s="10" t="s">
         <v>371</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A199" s="10" t="s">
         <v>373</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A200" s="10" t="s">
         <v>376</v>
       </c>
@@ -10367,7 +10370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="s">
         <v>378</v>
       </c>
@@ -10390,7 +10393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A202" s="10" t="s">
         <v>380</v>
       </c>
@@ -10413,7 +10416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A203" s="10" t="s">
         <v>382</v>
       </c>
@@ -10436,7 +10439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A204" s="10" t="s">
         <v>385</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A205" s="10" t="s">
         <v>387</v>
       </c>
@@ -10482,7 +10485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A206" s="10" t="s">
         <v>389</v>
       </c>
@@ -10505,7 +10508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="s">
         <v>391</v>
       </c>
@@ -10528,7 +10531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A208" s="10" t="s">
         <v>393</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A209" s="10" t="s">
         <v>396</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A210" s="10" t="s">
         <v>398</v>
       </c>
@@ -10597,7 +10600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A211" s="10" t="s">
         <v>401</v>
       </c>
@@ -10620,7 +10623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A212" s="10" t="s">
         <v>403</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A213" s="10" t="s">
         <v>406</v>
       </c>
@@ -10666,7 +10669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A214" s="10" t="s">
         <v>408</v>
       </c>
@@ -10689,7 +10692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A215" s="10" t="s">
         <v>410</v>
       </c>
@@ -10712,7 +10715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" s="10" t="s">
         <v>412</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A217" s="10" t="s">
         <v>414</v>
       </c>
@@ -10758,7 +10761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A218" s="10" t="s">
         <v>417</v>
       </c>
@@ -10781,7 +10784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="s">
         <v>419</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A220" s="10" t="s">
         <v>421</v>
       </c>
@@ -10827,7 +10830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A221" s="10" t="s">
         <v>423</v>
       </c>
@@ -10850,7 +10853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A222" s="10" t="s">
         <v>425</v>
       </c>
@@ -10873,7 +10876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A223" s="10" t="s">
         <v>427</v>
       </c>
@@ -10896,7 +10899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A224" s="10" t="s">
         <v>429</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="s">
         <v>432</v>
       </c>
@@ -10942,7 +10945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A226" s="10" t="s">
         <v>434</v>
       </c>
@@ -10965,7 +10968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A227" s="10" t="s">
         <v>436</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A228" s="10" t="s">
         <v>439</v>
       </c>
@@ -11011,7 +11014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A229" s="10" t="s">
         <v>441</v>
       </c>
@@ -11034,7 +11037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A230" s="10" t="s">
         <v>443</v>
       </c>
@@ -11057,7 +11060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A231" s="10" t="s">
         <v>445</v>
       </c>
@@ -11080,7 +11083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A232" s="10" t="s">
         <v>448</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="s">
         <v>450</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A234" s="10" t="s">
         <v>453</v>
       </c>
@@ -11149,7 +11152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="s">
         <v>455</v>
       </c>
@@ -11172,7 +11175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A236" s="10" t="s">
         <v>458</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="s">
         <v>461</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A238" s="10" t="s">
         <v>463</v>
       </c>
@@ -11241,7 +11244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A239" s="10" t="s">
         <v>465</v>
       </c>
@@ -11264,7 +11267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A240" s="10" t="s">
         <v>467</v>
       </c>
@@ -11287,7 +11290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A241" s="10" t="s">
         <v>470</v>
       </c>
@@ -11310,7 +11313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A242" s="10" t="s">
         <v>472</v>
       </c>
@@ -11333,7 +11336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="s">
         <v>475</v>
       </c>
@@ -11356,7 +11359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A244" s="10" t="s">
         <v>478</v>
       </c>
@@ -11379,7 +11382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A245" s="10" t="s">
         <v>480</v>
       </c>
@@ -11402,7 +11405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A246" s="10" t="s">
         <v>482</v>
       </c>
@@ -11425,7 +11428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A247" s="10" t="s">
         <v>485</v>
       </c>
@@ -11448,7 +11451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A248" s="10" t="s">
         <v>487</v>
       </c>
@@ -11471,7 +11474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A249" s="10" t="s">
         <v>490</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A250" s="10" t="s">
         <v>493</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A251" s="10" t="s">
         <v>496</v>
       </c>
@@ -11540,7 +11543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A252" s="10" t="s">
         <v>498</v>
       </c>
@@ -11563,7 +11566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A253" s="10" t="s">
         <v>500</v>
       </c>
@@ -11586,7 +11589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A254" s="10" t="s">
         <v>502</v>
       </c>
@@ -11609,7 +11612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="s">
         <v>504</v>
       </c>
@@ -11632,7 +11635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A256" s="10" t="s">
         <v>507</v>
       </c>
@@ -11655,7 +11658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A257" s="10" t="s">
         <v>509</v>
       </c>
@@ -11678,7 +11681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A258" s="10" t="s">
         <v>511</v>
       </c>
@@ -11701,7 +11704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A259" s="10" t="s">
         <v>513</v>
       </c>
@@ -11724,7 +11727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A260" s="10" t="s">
         <v>515</v>
       </c>
@@ -11747,7 +11750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A261" s="10" t="s">
         <v>518</v>
       </c>
@@ -11770,7 +11773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A262" s="10" t="s">
         <v>520</v>
       </c>
@@ -11793,7 +11796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A263" s="10" t="s">
         <v>522</v>
       </c>
@@ -11816,7 +11819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A264" s="10" t="s">
         <v>524</v>
       </c>
@@ -11839,7 +11842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A265" s="10" t="s">
         <v>527</v>
       </c>
@@ -11862,7 +11865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A266" s="10" t="s">
         <v>529</v>
       </c>
@@ -11885,7 +11888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A267" s="10" t="s">
         <v>531</v>
       </c>
@@ -11908,7 +11911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A268" s="10" t="s">
         <v>533</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A269" s="10" t="s">
         <v>536</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A270" s="10" t="s">
         <v>538</v>
       </c>
@@ -11977,7 +11980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A271" s="10" t="s">
         <v>540</v>
       </c>
@@ -12000,7 +12003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A272" s="10" t="s">
         <v>542</v>
       </c>
@@ -12023,7 +12026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A273" s="10" t="s">
         <v>544</v>
       </c>
@@ -12046,7 +12049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A274" s="10" t="s">
         <v>547</v>
       </c>
@@ -12069,7 +12072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A275" s="10" t="s">
         <v>549</v>
       </c>
@@ -12092,7 +12095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A276" s="10" t="s">
         <v>551</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A277" s="10" t="s">
         <v>553</v>
       </c>
@@ -12138,7 +12141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A278" s="10" t="s">
         <v>555</v>
       </c>
@@ -12161,7 +12164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A279" s="10" t="s">
         <v>557</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A280" s="10" t="s">
         <v>560</v>
       </c>
@@ -12207,7 +12210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A281" s="10" t="s">
         <v>562</v>
       </c>
@@ -12230,7 +12233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A282" s="10" t="s">
         <v>564</v>
       </c>
@@ -12253,7 +12256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A283" s="10" t="s">
         <v>567</v>
       </c>
@@ -12276,7 +12279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A284" s="10" t="s">
         <v>569</v>
       </c>
@@ -12299,7 +12302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A285" s="10" t="s">
         <v>571</v>
       </c>
@@ -12322,7 +12325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A286" s="10" t="s">
         <v>573</v>
       </c>
@@ -12345,7 +12348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A287" s="10" t="s">
         <v>576</v>
       </c>
@@ -12368,7 +12371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A288" s="10" t="s">
         <v>578</v>
       </c>
@@ -12391,7 +12394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A289" s="10" t="s">
         <v>580</v>
       </c>
@@ -12414,7 +12417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A290" s="10" t="s">
         <v>582</v>
       </c>
@@ -12437,7 +12440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="s">
         <v>585</v>
       </c>
@@ -12460,7 +12463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A292" s="10" t="s">
         <v>587</v>
       </c>
@@ -12483,7 +12486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A293" s="10" t="s">
         <v>589</v>
       </c>
@@ -12506,7 +12509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A294" s="10" t="s">
         <v>592</v>
       </c>
@@ -12529,7 +12532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A295" s="10" t="s">
         <v>594</v>
       </c>
@@ -12552,7 +12555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A296" s="10" t="s">
         <v>596</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A297" s="10" t="s">
         <v>598</v>
       </c>
@@ -12598,7 +12601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A298" s="10" t="s">
         <v>600</v>
       </c>
@@ -12621,7 +12624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A299" s="10" t="s">
         <v>603</v>
       </c>
@@ -12644,7 +12647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A300" s="10" t="s">
         <v>605</v>
       </c>
@@ -12667,7 +12670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" s="10" t="s">
         <v>608</v>
       </c>
@@ -12690,7 +12693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A302" s="10" t="s">
         <v>610</v>
       </c>
@@ -12713,7 +12716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A303" s="10" t="s">
         <v>613</v>
       </c>
@@ -12736,7 +12739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A304" s="10" t="s">
         <v>615</v>
       </c>
@@ -12759,7 +12762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A305" s="10" t="s">
         <v>618</v>
       </c>
@@ -12782,7 +12785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A306" s="10" t="s">
         <v>620</v>
       </c>
@@ -12805,7 +12808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A307" s="10" t="s">
         <v>622</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A308" s="10" t="s">
         <v>625</v>
       </c>
@@ -12851,7 +12854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A309" s="10" t="s">
         <v>627</v>
       </c>
@@ -12874,7 +12877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A310" s="10" t="s">
         <v>629</v>
       </c>
@@ -12897,7 +12900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A311" s="10" t="s">
         <v>631</v>
       </c>
@@ -12920,7 +12923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A312" s="10" t="s">
         <v>633</v>
       </c>
@@ -12943,7 +12946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A313" s="10" t="s">
         <v>636</v>
       </c>
@@ -12966,7 +12969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A314" s="10" t="s">
         <v>638</v>
       </c>
@@ -12989,7 +12992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="s">
         <v>640</v>
       </c>
@@ -13012,7 +13015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A316" s="10" t="s">
         <v>642</v>
       </c>
@@ -13035,7 +13038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A317" s="10" t="s">
         <v>644</v>
       </c>
@@ -13058,7 +13061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A318" s="10" t="s">
         <v>647</v>
       </c>
@@ -13081,7 +13084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A319" s="10" t="s">
         <v>649</v>
       </c>
@@ -13104,7 +13107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A320" s="10" t="s">
         <v>651</v>
       </c>
@@ -13127,7 +13130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A321" s="10" t="s">
         <v>653</v>
       </c>
@@ -13150,7 +13153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A322" s="10" t="s">
         <v>656</v>
       </c>
@@ -13173,7 +13176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A323" s="10" t="s">
         <v>658</v>
       </c>
@@ -13196,7 +13199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A324" s="10" t="s">
         <v>660</v>
       </c>
@@ -13219,7 +13222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A325" s="10" t="s">
         <v>662</v>
       </c>
@@ -13242,7 +13245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A326" s="10" t="s">
         <v>664</v>
       </c>
@@ -13265,7 +13268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A327" s="10" t="s">
         <v>667</v>
       </c>
@@ -13288,7 +13291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A328" s="10" t="s">
         <v>669</v>
       </c>
@@ -13311,7 +13314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A329" s="10" t="s">
         <v>671</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A330" s="10" t="s">
         <v>674</v>
       </c>
@@ -13357,7 +13360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A331" s="10" t="s">
         <v>676</v>
       </c>
@@ -13380,7 +13383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A332" s="10" t="s">
         <v>679</v>
       </c>
@@ -13403,7 +13406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A333" s="10" t="s">
         <v>681</v>
       </c>
@@ -13426,7 +13429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A334" s="10" t="s">
         <v>683</v>
       </c>
@@ -13449,7 +13452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A335" s="10" t="s">
         <v>686</v>
       </c>
@@ -13472,7 +13475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A336" s="10" t="s">
         <v>688</v>
       </c>
@@ -13495,7 +13498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A337" s="10" t="s">
         <v>690</v>
       </c>
@@ -13518,7 +13521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A338" s="10" t="s">
         <v>693</v>
       </c>
@@ -13541,7 +13544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A339" s="10" t="s">
         <v>695</v>
       </c>
@@ -13564,7 +13567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A340" s="10" t="s">
         <v>697</v>
       </c>
@@ -13587,7 +13590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A341" s="10" t="s">
         <v>700</v>
       </c>
@@ -13610,7 +13613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A342" s="10" t="s">
         <v>702</v>
       </c>
@@ -13633,7 +13636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A343" s="10" t="s">
         <v>704</v>
       </c>
@@ -13656,7 +13659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A344" s="10" t="s">
         <v>706</v>
       </c>
@@ -13679,7 +13682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A345" s="10" t="s">
         <v>708</v>
       </c>
@@ -13702,7 +13705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A346" s="10" t="s">
         <v>711</v>
       </c>
@@ -13725,7 +13728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A347" s="10" t="s">
         <v>713</v>
       </c>
@@ -13748,7 +13751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A348" s="10" t="s">
         <v>715</v>
       </c>
@@ -13771,7 +13774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A349" s="10" t="s">
         <v>718</v>
       </c>
@@ -13794,7 +13797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A350" s="10" t="s">
         <v>720</v>
       </c>
@@ -13817,7 +13820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A351" s="10" t="s">
         <v>722</v>
       </c>
@@ -13840,7 +13843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A352" s="10" t="s">
         <v>725</v>
       </c>
@@ -13863,7 +13866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A353" s="10" t="s">
         <v>727</v>
       </c>
@@ -13886,7 +13889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A354" s="10" t="s">
         <v>729</v>
       </c>
@@ -13909,7 +13912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A355" s="10" t="s">
         <v>733</v>
       </c>
@@ -13932,7 +13935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A356" s="10" t="s">
         <v>735</v>
       </c>
@@ -13955,7 +13958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A357" s="10" t="s">
         <v>737</v>
       </c>
@@ -13978,7 +13981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A358" s="10" t="s">
         <v>740</v>
       </c>
@@ -14001,7 +14004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A359" s="10" t="s">
         <v>742</v>
       </c>
@@ -14024,7 +14027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A360" s="10" t="s">
         <v>744</v>
       </c>
@@ -14047,7 +14050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A361" s="10" t="s">
         <v>746</v>
       </c>
@@ -14070,7 +14073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A362" s="10" t="s">
         <v>748</v>
       </c>
@@ -14093,7 +14096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A363" s="10" t="s">
         <v>750</v>
       </c>
@@ -14116,7 +14119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A364" s="10" t="s">
         <v>753</v>
       </c>
@@ -14139,7 +14142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A365" s="10" t="s">
         <v>755</v>
       </c>
@@ -14162,7 +14165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A366" s="10" t="s">
         <v>757</v>
       </c>
@@ -14185,7 +14188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A367" s="10" t="s">
         <v>759</v>
       </c>
@@ -14208,7 +14211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A368" s="10" t="s">
         <v>762</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:7" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A369" s="10" t="s">
         <v>764</v>
       </c>
@@ -14254,7 +14257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A370" s="10" t="s">
         <v>766</v>
       </c>
@@ -14277,7 +14280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A371" s="10" t="s">
         <v>768</v>
       </c>
@@ -14300,7 +14303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A372" s="10" t="s">
         <v>770</v>
       </c>
@@ -14323,7 +14326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A373" s="10" t="s">
         <v>772</v>
       </c>
@@ -14346,7 +14349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A374" s="10" t="s">
         <v>774</v>
       </c>
@@ -14369,7 +14372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A375" s="10" t="s">
         <v>777</v>
       </c>
@@ -14392,7 +14395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A376" s="10" t="s">
         <v>779</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A377" s="10" t="s">
         <v>781</v>
       </c>
@@ -14438,7 +14441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A378" s="10" t="s">
         <v>783</v>
       </c>
@@ -14461,7 +14464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A379" s="10" t="s">
         <v>785</v>
       </c>
@@ -14484,7 +14487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A380" s="10" t="s">
         <v>787</v>
       </c>
@@ -14507,7 +14510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A381" s="10" t="s">
         <v>789</v>
       </c>
@@ -14530,7 +14533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A382" s="10" t="s">
         <v>791</v>
       </c>
@@ -14553,7 +14556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A383" s="10" t="s">
         <v>793</v>
       </c>
@@ -14576,7 +14579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A384" s="10" t="s">
         <v>795</v>
       </c>
@@ -14599,7 +14602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A385" s="10" t="s">
         <v>797</v>
       </c>
@@ -14622,7 +14625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A386" s="10" t="s">
         <v>800</v>
       </c>
@@ -14645,7 +14648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A387" s="10" t="s">
         <v>802</v>
       </c>
@@ -14668,7 +14671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A388" s="10" t="s">
         <v>804</v>
       </c>
@@ -14691,7 +14694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A389" s="10" t="s">
         <v>806</v>
       </c>
@@ -14714,7 +14717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A390" s="10" t="s">
         <v>808</v>
       </c>
@@ -14737,7 +14740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A391" s="10" t="s">
         <v>810</v>
       </c>
@@ -14760,7 +14763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A392" s="10" t="s">
         <v>812</v>
       </c>
@@ -14783,7 +14786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A393" s="10" t="s">
         <v>814</v>
       </c>
@@ -14806,7 +14809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A394" s="10" t="s">
         <v>817</v>
       </c>
@@ -14829,7 +14832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A395" s="10" t="s">
         <v>819</v>
       </c>
@@ -14852,7 +14855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A396" s="10" t="s">
         <v>821</v>
       </c>
@@ -14875,7 +14878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A397" s="10" t="s">
         <v>823</v>
       </c>
@@ -14898,7 +14901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A398" s="10" t="s">
         <v>825</v>
       </c>
@@ -14921,7 +14924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A399" s="10" t="s">
         <v>827</v>
       </c>
@@ -14944,7 +14947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A400" s="10" t="s">
         <v>829</v>
       </c>
@@ -14967,7 +14970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A401" s="10" t="s">
         <v>831</v>
       </c>
@@ -14990,7 +14993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A402" s="10" t="s">
         <v>833</v>
       </c>
@@ -15013,7 +15016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A403" s="10" t="s">
         <v>835</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A404" s="10" t="s">
         <v>838</v>
       </c>
@@ -15059,7 +15062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A405" s="10" t="s">
         <v>840</v>
       </c>
@@ -15082,7 +15085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A406" s="10" t="s">
         <v>842</v>
       </c>
@@ -15105,7 +15108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A407" s="10" t="s">
         <v>844</v>
       </c>
@@ -15128,7 +15131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A408" s="10" t="s">
         <v>847</v>
       </c>
@@ -15151,7 +15154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A409" s="10" t="s">
         <v>849</v>
       </c>
@@ -15174,7 +15177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A410" s="10" t="s">
         <v>851</v>
       </c>
@@ -15197,7 +15200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A411" s="10" t="s">
         <v>853</v>
       </c>
@@ -15220,7 +15223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A412" s="10" t="s">
         <v>855</v>
       </c>
@@ -15243,7 +15246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A413" s="10" t="s">
         <v>857</v>
       </c>
@@ -15266,7 +15269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A414" s="10" t="s">
         <v>859</v>
       </c>
@@ -15289,7 +15292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A415" s="10" t="s">
         <v>861</v>
       </c>
@@ -15312,7 +15315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A416" s="10" t="s">
         <v>863</v>
       </c>
@@ -15335,7 +15338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A417" s="10" t="s">
         <v>866</v>
       </c>
@@ -15358,7 +15361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A418" s="10" t="s">
         <v>868</v>
       </c>
@@ -15381,7 +15384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A419" s="10" t="s">
         <v>870</v>
       </c>
@@ -15404,7 +15407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A420" s="10" t="s">
         <v>872</v>
       </c>
@@ -15427,7 +15430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A421" s="10" t="s">
         <v>874</v>
       </c>
@@ -15450,7 +15453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A422" s="10" t="s">
         <v>876</v>
       </c>
@@ -15473,7 +15476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A423" s="10" t="s">
         <v>879</v>
       </c>
@@ -15496,7 +15499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A424" s="10" t="s">
         <v>881</v>
       </c>
@@ -15519,7 +15522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A425" s="10" t="s">
         <v>883</v>
       </c>
@@ -15542,7 +15545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A426" s="10" t="s">
         <v>885</v>
       </c>
@@ -15565,7 +15568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A427" s="10" t="s">
         <v>888</v>
       </c>
@@ -15588,7 +15591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A428" s="10" t="s">
         <v>890</v>
       </c>
@@ -15611,7 +15614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A429" s="10" t="s">
         <v>892</v>
       </c>
@@ -15634,7 +15637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A430" s="10" t="s">
         <v>895</v>
       </c>
@@ -15657,7 +15660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A431" s="10" t="s">
         <v>897</v>
       </c>
@@ -15680,7 +15683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A432" s="10" t="s">
         <v>899</v>
       </c>
@@ -15703,7 +15706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A433" s="10" t="s">
         <v>901</v>
       </c>
@@ -15726,7 +15729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A434" s="10" t="s">
         <v>903</v>
       </c>
@@ -15749,7 +15752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A435" s="10" t="s">
         <v>905</v>
       </c>
@@ -15772,7 +15775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A436" s="10" t="s">
         <v>907</v>
       </c>
@@ -15795,7 +15798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A437" s="10" t="s">
         <v>909</v>
       </c>
@@ -15818,7 +15821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A438" s="10" t="s">
         <v>911</v>
       </c>
@@ -15841,7 +15844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A439" s="10" t="s">
         <v>913</v>
       </c>
@@ -15864,7 +15867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A440" s="10" t="s">
         <v>916</v>
       </c>
@@ -15887,7 +15890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A441" s="10" t="s">
         <v>918</v>
       </c>
@@ -15910,7 +15913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A442" s="10" t="s">
         <v>920</v>
       </c>
@@ -15933,7 +15936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A443" s="10" t="s">
         <v>922</v>
       </c>
@@ -15956,7 +15959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A444" s="10" t="s">
         <v>924</v>
       </c>
@@ -15979,7 +15982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A445" s="10" t="s">
         <v>926</v>
       </c>
@@ -16002,7 +16005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A446" s="10" t="s">
         <v>930</v>
       </c>
@@ -16025,7 +16028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A447" s="10" t="s">
         <v>932</v>
       </c>
@@ -16048,7 +16051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A448" s="10" t="s">
         <v>934</v>
       </c>
@@ -16071,7 +16074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A449" s="10" t="s">
         <v>936</v>
       </c>
@@ -16094,7 +16097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A450" s="10" t="s">
         <v>938</v>
       </c>
@@ -16117,7 +16120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A451" s="10" t="s">
         <v>940</v>
       </c>
@@ -16140,7 +16143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A452" s="10" t="s">
         <v>942</v>
       </c>
@@ -16163,7 +16166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A453" s="10" t="s">
         <v>944</v>
       </c>
@@ -16186,7 +16189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A454" s="10" t="s">
         <v>946</v>
       </c>
@@ -16209,7 +16212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A455" s="10" t="s">
         <v>948</v>
       </c>
@@ -16232,7 +16235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A456" s="10" t="s">
         <v>950</v>
       </c>
@@ -16255,7 +16258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A457" s="10" t="s">
         <v>953</v>
       </c>
@@ -16278,7 +16281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A458" s="10" t="s">
         <v>955</v>
       </c>
@@ -16301,7 +16304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A459" s="10" t="s">
         <v>957</v>
       </c>
@@ -16324,7 +16327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A460" s="10" t="s">
         <v>959</v>
       </c>
@@ -16347,7 +16350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A461" s="10" t="s">
         <v>961</v>
       </c>
@@ -16370,7 +16373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A462" s="10" t="s">
         <v>963</v>
       </c>
@@ -16393,7 +16396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A463" s="10" t="s">
         <v>965</v>
       </c>
@@ -16416,7 +16419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A464" s="10" t="s">
         <v>967</v>
       </c>
@@ -16439,7 +16442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A465" s="10" t="s">
         <v>969</v>
       </c>
@@ -16462,7 +16465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A466" s="10" t="s">
         <v>971</v>
       </c>
@@ -16485,7 +16488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A467" s="10" t="s">
         <v>974</v>
       </c>
@@ -16508,7 +16511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A468" s="10" t="s">
         <v>976</v>
       </c>
@@ -16531,7 +16534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A469" s="10" t="s">
         <v>978</v>
       </c>
@@ -16554,7 +16557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A470" s="10" t="s">
         <v>980</v>
       </c>
@@ -16577,7 +16580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A471" s="10" t="s">
         <v>982</v>
       </c>
@@ -16600,7 +16603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A472" s="10" t="s">
         <v>984</v>
       </c>
@@ -16623,7 +16626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A473" s="10" t="s">
         <v>986</v>
       </c>
@@ -16646,7 +16649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A474" s="10" t="s">
         <v>988</v>
       </c>
@@ -16669,7 +16672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A475" s="10" t="s">
         <v>990</v>
       </c>
@@ -16692,7 +16695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A476" s="10" t="s">
         <v>992</v>
       </c>
@@ -16715,7 +16718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A477" s="10" t="s">
         <v>995</v>
       </c>
@@ -16738,7 +16741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A478" s="10" t="s">
         <v>997</v>
       </c>
@@ -16761,7 +16764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A479" s="10" t="s">
         <v>999</v>
       </c>
@@ -16784,7 +16787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A480" s="10" t="s">
         <v>1001</v>
       </c>
@@ -16807,7 +16810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A481" s="18" t="s">
         <v>1003</v>
       </c>
@@ -16830,7 +16833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A482" s="19"/>
       <c r="B482" s="19"/>
       <c r="C482" s="19"/>
@@ -16839,7 +16842,7 @@
       <c r="F482" s="19"/>
       <c r="G482" s="22"/>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A483" s="20"/>
       <c r="B483" s="20"/>
       <c r="C483" s="20"/>
@@ -16848,7 +16851,7 @@
       <c r="F483" s="20"/>
       <c r="G483" s="23"/>
     </row>
-    <row r="484" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A484" s="10" t="s">
         <v>1005</v>
       </c>
@@ -16871,7 +16874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A485" s="10" t="s">
         <v>1007</v>
       </c>
@@ -16894,7 +16897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A486" s="10" t="s">
         <v>1010</v>
       </c>
@@ -16917,7 +16920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A487" s="10" t="s">
         <v>1012</v>
       </c>
@@ -16940,7 +16943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A488" s="10" t="s">
         <v>1014</v>
       </c>
@@ -16963,7 +16966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A489" s="10" t="s">
         <v>1016</v>
       </c>
@@ -16986,7 +16989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A490" s="10" t="s">
         <v>1018</v>
       </c>
@@ -17009,7 +17012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A491" s="10" t="s">
         <v>1020</v>
       </c>
@@ -17032,7 +17035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A492" s="10" t="s">
         <v>1022</v>
       </c>
@@ -17055,7 +17058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A493" s="10" t="s">
         <v>1025</v>
       </c>
@@ -17078,7 +17081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A494" s="10" t="s">
         <v>1027</v>
       </c>
@@ -17101,7 +17104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A495" s="10" t="s">
         <v>1029</v>
       </c>
@@ -17124,7 +17127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A496" s="10" t="s">
         <v>1031</v>
       </c>
@@ -17147,7 +17150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A497" s="10" t="s">
         <v>1033</v>
       </c>
@@ -17170,7 +17173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A498" s="10" t="s">
         <v>1036</v>
       </c>
@@ -17193,7 +17196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A499" s="10" t="s">
         <v>1038</v>
       </c>
@@ -17216,7 +17219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A500" s="10" t="s">
         <v>1040</v>
       </c>
@@ -17239,7 +17242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A501" s="10" t="s">
         <v>1042</v>
       </c>
@@ -17262,7 +17265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A502" s="10" t="s">
         <v>1044</v>
       </c>
@@ -17285,7 +17288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A503" s="10" t="s">
         <v>1046</v>
       </c>
@@ -17308,7 +17311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A504" s="10" t="s">
         <v>1048</v>
       </c>
@@ -17331,7 +17334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A505" s="10" t="s">
         <v>1050</v>
       </c>
@@ -17354,7 +17357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A506" s="10" t="s">
         <v>1052</v>
       </c>
@@ -17377,7 +17380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A507" s="10" t="s">
         <v>1055</v>
       </c>
@@ -17400,7 +17403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A508" s="10" t="s">
         <v>1057</v>
       </c>
@@ -17423,7 +17426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A509" s="10" t="s">
         <v>1059</v>
       </c>
@@ -17446,7 +17449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A510" s="10" t="s">
         <v>1061</v>
       </c>
@@ -17469,7 +17472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A511" s="10" t="s">
         <v>1063</v>
       </c>
@@ -17492,7 +17495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A512" s="10" t="s">
         <v>1066</v>
       </c>
@@ -17515,7 +17518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A513" s="10" t="s">
         <v>1068</v>
       </c>
@@ -17538,7 +17541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A514" s="10" t="s">
         <v>1070</v>
       </c>
@@ -17561,7 +17564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:7" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A515" s="10" t="s">
         <v>1072</v>
       </c>
@@ -17584,7 +17587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A516" s="10" t="s">
         <v>1074</v>
       </c>
@@ -17607,7 +17610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A517" s="10" t="s">
         <v>1076</v>
       </c>
@@ -17630,7 +17633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A518" s="10" t="s">
         <v>1078</v>
       </c>
@@ -17653,7 +17656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A519" s="10" t="s">
         <v>1080</v>
       </c>
@@ -17676,7 +17679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A520" s="10" t="s">
         <v>1082</v>
       </c>
@@ -17699,7 +17702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A521" s="10" t="s">
         <v>1084</v>
       </c>
@@ -17722,7 +17725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A522" s="10" t="s">
         <v>1087</v>
       </c>
@@ -17745,7 +17748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A523" s="10" t="s">
         <v>1089</v>
       </c>
@@ -17768,7 +17771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A524" s="10" t="s">
         <v>1091</v>
       </c>
@@ -17791,7 +17794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A525" s="10" t="s">
         <v>1093</v>
       </c>
@@ -17814,7 +17817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A526" s="10" t="s">
         <v>1095</v>
       </c>
@@ -17837,7 +17840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A527" s="10" t="s">
         <v>1097</v>
       </c>
@@ -17860,7 +17863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A528" s="10" t="s">
         <v>1099</v>
       </c>
@@ -17883,7 +17886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A529" s="10" t="s">
         <v>1101</v>
       </c>
@@ -17906,7 +17909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A530" s="10" t="s">
         <v>1103</v>
       </c>
@@ -17929,7 +17932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A531" s="10" t="s">
         <v>1105</v>
       </c>
@@ -17952,7 +17955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A532" s="10" t="s">
         <v>1107</v>
       </c>
@@ -17975,7 +17978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A533" s="10" t="s">
         <v>1110</v>
       </c>
@@ -17998,7 +18001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A534" s="10" t="s">
         <v>1112</v>
       </c>
@@ -18021,7 +18024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A535" s="10" t="s">
         <v>1114</v>
       </c>
@@ -18044,7 +18047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A536" s="10" t="s">
         <v>1116</v>
       </c>
@@ -18067,7 +18070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A537" s="10" t="s">
         <v>1118</v>
       </c>
@@ -18090,7 +18093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A538" s="10" t="s">
         <v>1120</v>
       </c>
@@ -18113,7 +18116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A539" s="10" t="s">
         <v>1122</v>
       </c>
@@ -18136,7 +18139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A540" s="10" t="s">
         <v>1124</v>
       </c>
@@ -18159,7 +18162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A541" s="10" t="s">
         <v>1127</v>
       </c>
@@ -18182,7 +18185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A542" s="10" t="s">
         <v>1129</v>
       </c>
@@ -18205,7 +18208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A543" s="10" t="s">
         <v>1131</v>
       </c>
@@ -18228,7 +18231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A544" s="10" t="s">
         <v>1133</v>
       </c>
@@ -18251,7 +18254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A545" s="10" t="s">
         <v>1135</v>
       </c>
@@ -18274,7 +18277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A546" s="10" t="s">
         <v>1137</v>
       </c>
@@ -18297,7 +18300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A547" s="10" t="s">
         <v>1139</v>
       </c>
@@ -18320,7 +18323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A548" s="10" t="s">
         <v>1141</v>
       </c>
@@ -18343,7 +18346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A549" s="10" t="s">
         <v>1143</v>
       </c>
@@ -18366,7 +18369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A550" s="10" t="s">
         <v>1146</v>
       </c>
@@ -18389,7 +18392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A551" s="10" t="s">
         <v>1148</v>
       </c>
@@ -18412,7 +18415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A552" s="10" t="s">
         <v>1150</v>
       </c>
@@ -18435,7 +18438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A553" s="10" t="s">
         <v>1152</v>
       </c>
@@ -18458,7 +18461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A554" s="10" t="s">
         <v>1154</v>
       </c>
@@ -18481,7 +18484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A555" s="10" t="s">
         <v>1157</v>
       </c>
@@ -18504,7 +18507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A556" s="10" t="s">
         <v>1159</v>
       </c>
@@ -18527,7 +18530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A557" s="10" t="s">
         <v>1161</v>
       </c>
@@ -18550,7 +18553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A558" s="10" t="s">
         <v>1163</v>
       </c>
@@ -18573,7 +18576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A559" s="10" t="s">
         <v>1165</v>
       </c>
@@ -18596,7 +18599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A560" s="10" t="s">
         <v>1167</v>
       </c>
@@ -18619,7 +18622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A561" s="10" t="s">
         <v>1169</v>
       </c>
@@ -18642,7 +18645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A562" s="10" t="s">
         <v>1171</v>
       </c>
@@ -18665,7 +18668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A563" s="10" t="s">
         <v>1173</v>
       </c>
@@ -18688,7 +18691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A564" s="10" t="s">
         <v>1177</v>
       </c>
@@ -18711,7 +18714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A565" s="10" t="s">
         <v>1179</v>
       </c>
@@ -18734,7 +18737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A566" s="10" t="s">
         <v>1181</v>
       </c>
@@ -18757,7 +18760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A567" s="10" t="s">
         <v>1184</v>
       </c>
@@ -18780,7 +18783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A568" s="10" t="s">
         <v>1186</v>
       </c>
@@ -18803,7 +18806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A569" s="10" t="s">
         <v>1188</v>
       </c>
@@ -18826,7 +18829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A570" s="10" t="s">
         <v>1190</v>
       </c>
@@ -18849,7 +18852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A571" s="10" t="s">
         <v>1192</v>
       </c>
@@ -18872,7 +18875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A572" s="10" t="s">
         <v>1194</v>
       </c>
@@ -18895,7 +18898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A573" s="10" t="s">
         <v>1197</v>
       </c>
@@ -18918,7 +18921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A574" s="10" t="s">
         <v>1199</v>
       </c>
@@ -18941,7 +18944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A575" s="10" t="s">
         <v>1201</v>
       </c>
@@ -18964,7 +18967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A576" s="10" t="s">
         <v>1203</v>
       </c>
@@ -18987,7 +18990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A577" s="10" t="s">
         <v>1205</v>
       </c>
@@ -19010,7 +19013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A578" s="10" t="s">
         <v>1207</v>
       </c>
@@ -19033,7 +19036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A579" s="10" t="s">
         <v>1209</v>
       </c>
@@ -19056,7 +19059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A580" s="10" t="s">
         <v>1211</v>
       </c>
@@ -19079,7 +19082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A581" s="10" t="s">
         <v>1213</v>
       </c>
@@ -19102,7 +19105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A582" s="10" t="s">
         <v>1215</v>
       </c>
@@ -19125,7 +19128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A583" s="10" t="s">
         <v>1217</v>
       </c>
@@ -19148,7 +19151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A584" s="10" t="s">
         <v>1219</v>
       </c>
@@ -19171,7 +19174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="585" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A585" s="10" t="s">
         <v>1222</v>
       </c>
@@ -19194,7 +19197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A586" s="10" t="s">
         <v>1224</v>
       </c>
@@ -19217,7 +19220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A587" s="10" t="s">
         <v>1226</v>
       </c>
@@ -19240,7 +19243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A588" s="10" t="s">
         <v>1228</v>
       </c>
@@ -19263,7 +19266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A589" s="10" t="s">
         <v>1230</v>
       </c>
@@ -19286,7 +19289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A590" s="10" t="s">
         <v>1232</v>
       </c>
@@ -19309,7 +19312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A591" s="10" t="s">
         <v>1235</v>
       </c>
@@ -19332,7 +19335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A592" s="10" t="s">
         <v>1237</v>
       </c>
@@ -19355,7 +19358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A593" s="10" t="s">
         <v>1239</v>
       </c>
@@ -19378,7 +19381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A594" s="10" t="s">
         <v>1241</v>
       </c>
@@ -19401,7 +19404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A595" s="10" t="s">
         <v>1243</v>
       </c>
@@ -19424,7 +19427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A596" s="10" t="s">
         <v>1245</v>
       </c>
@@ -19447,7 +19450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A597" s="10" t="s">
         <v>1248</v>
       </c>
@@ -19470,7 +19473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A598" s="10" t="s">
         <v>1250</v>
       </c>
@@ -19493,7 +19496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A599" s="10" t="s">
         <v>1252</v>
       </c>
@@ -19516,7 +19519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A600" s="10" t="s">
         <v>1254</v>
       </c>
@@ -19539,7 +19542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A601" s="10" t="s">
         <v>1256</v>
       </c>
@@ -19562,7 +19565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A602" s="10" t="s">
         <v>1258</v>
       </c>
@@ -19585,7 +19588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A603" s="10" t="s">
         <v>1260</v>
       </c>
@@ -19608,7 +19611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A604" s="10" t="s">
         <v>1262</v>
       </c>
@@ -19631,7 +19634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A605" s="10" t="s">
         <v>1264</v>
       </c>
@@ -19654,7 +19657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A606" s="10" t="s">
         <v>1267</v>
       </c>
@@ -19677,7 +19680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A607" s="10" t="s">
         <v>1269</v>
       </c>
@@ -19700,7 +19703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A608" s="10" t="s">
         <v>1271</v>
       </c>
@@ -19723,7 +19726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A609" s="10" t="s">
         <v>1273</v>
       </c>
@@ -19746,7 +19749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A610" s="10" t="s">
         <v>1276</v>
       </c>
@@ -19769,7 +19772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A611" s="10" t="s">
         <v>1278</v>
       </c>
@@ -19792,7 +19795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A612" s="10" t="s">
         <v>1280</v>
       </c>
@@ -19815,7 +19818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A613" s="10" t="s">
         <v>1282</v>
       </c>
@@ -19838,7 +19841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A614" s="10" t="s">
         <v>1284</v>
       </c>
@@ -19861,7 +19864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A615" s="10" t="s">
         <v>1286</v>
       </c>
@@ -19884,7 +19887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A616" s="10" t="s">
         <v>1289</v>
       </c>
@@ -19907,7 +19910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A617" s="10" t="s">
         <v>1291</v>
       </c>
@@ -19930,7 +19933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A618" s="10" t="s">
         <v>1293</v>
       </c>
@@ -19953,7 +19956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A619" s="10" t="s">
         <v>1295</v>
       </c>
@@ -19976,7 +19979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A620" s="10" t="s">
         <v>1297</v>
       </c>
@@ -19999,7 +20002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A621" s="10" t="s">
         <v>1300</v>
       </c>
@@ -20022,7 +20025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A622" s="10" t="s">
         <v>1302</v>
       </c>
@@ -20045,7 +20048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A623" s="10" t="s">
         <v>1304</v>
       </c>
@@ -20068,7 +20071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A624" s="10" t="s">
         <v>1306</v>
       </c>
@@ -20091,7 +20094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A625" s="10" t="s">
         <v>1308</v>
       </c>
@@ -20114,7 +20117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A626" s="10" t="s">
         <v>1311</v>
       </c>
@@ -20137,7 +20140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A627" s="10" t="s">
         <v>1313</v>
       </c>
@@ -20160,7 +20163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A628" s="10" t="s">
         <v>1315</v>
       </c>
@@ -20183,7 +20186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A629" s="10" t="s">
         <v>1317</v>
       </c>
@@ -20206,7 +20209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A630" s="10" t="s">
         <v>1319</v>
       </c>
@@ -20229,7 +20232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A631" s="10" t="s">
         <v>1321</v>
       </c>
@@ -20252,7 +20255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A632" s="10" t="s">
         <v>1323</v>
       </c>
@@ -20275,7 +20278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A633" s="10" t="s">
         <v>1325</v>
       </c>
@@ -20298,7 +20301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A634" s="10" t="s">
         <v>1327</v>
       </c>
@@ -20321,7 +20324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A635" s="10" t="s">
         <v>1331</v>
       </c>
@@ -20344,7 +20347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A636" s="10" t="s">
         <v>1333</v>
       </c>
@@ -20367,7 +20370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A637" s="10" t="s">
         <v>1335</v>
       </c>
@@ -20390,7 +20393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A638" s="10" t="s">
         <v>1338</v>
       </c>
@@ -20413,7 +20416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A639" s="10" t="s">
         <v>1340</v>
       </c>
@@ -20436,7 +20439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A640" s="10" t="s">
         <v>1342</v>
       </c>
@@ -20459,7 +20462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A641" s="10" t="s">
         <v>1344</v>
       </c>
@@ -20482,7 +20485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A642" s="10" t="s">
         <v>1346</v>
       </c>
@@ -20505,7 +20508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A643" s="10" t="s">
         <v>1348</v>
       </c>
@@ -20528,7 +20531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A644" s="10" t="s">
         <v>1350</v>
       </c>
@@ -20551,7 +20554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A645" s="10" t="s">
         <v>1353</v>
       </c>
@@ -20574,7 +20577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A646" s="10" t="s">
         <v>1355</v>
       </c>
@@ -20597,7 +20600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A647" s="10" t="s">
         <v>1357</v>
       </c>
@@ -20620,7 +20623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A648" s="10" t="s">
         <v>1359</v>
       </c>
@@ -20643,7 +20646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A649" s="10" t="s">
         <v>1362</v>
       </c>
@@ -20666,7 +20669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A650" s="10" t="s">
         <v>1364</v>
       </c>
@@ -20689,7 +20692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A651" s="10" t="s">
         <v>1366</v>
       </c>
@@ -20712,7 +20715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A652" s="10" t="s">
         <v>1368</v>
       </c>
@@ -20735,7 +20738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A653" s="10" t="s">
         <v>1370</v>
       </c>
@@ -20758,7 +20761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A654" s="10" t="s">
         <v>1372</v>
       </c>
@@ -20781,7 +20784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="655" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A655" s="10" t="s">
         <v>1374</v>
       </c>
@@ -20804,7 +20807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A656" s="10" t="s">
         <v>1376</v>
       </c>
@@ -20827,7 +20830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A657" s="10" t="s">
         <v>1378</v>
       </c>
@@ -20850,7 +20853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A658" s="10" t="s">
         <v>1380</v>
       </c>
@@ -20873,7 +20876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A659" s="10" t="s">
         <v>1383</v>
       </c>
@@ -20896,7 +20899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A660" s="10" t="s">
         <v>1385</v>
       </c>
@@ -20919,7 +20922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A661" s="10" t="s">
         <v>1387</v>
       </c>
@@ -20942,7 +20945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A662" s="10" t="s">
         <v>1389</v>
       </c>
@@ -20965,7 +20968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A663" s="10" t="s">
         <v>1391</v>
       </c>
@@ -20988,7 +20991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="65.650000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A664" s="10" t="s">
         <v>1393</v>
       </c>
@@ -21011,7 +21014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A665" s="10" t="s">
         <v>1396</v>
       </c>
@@ -21034,7 +21037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A666" s="10" t="s">
         <v>1398</v>
       </c>
@@ -21057,7 +21060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A667" s="10" t="s">
         <v>1400</v>
       </c>
@@ -21080,7 +21083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A668" s="10" t="s">
         <v>1402</v>
       </c>
@@ -21103,7 +21106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A669" s="10" t="s">
         <v>1404</v>
       </c>
@@ -21126,7 +21129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A670" s="10" t="s">
         <v>1406</v>
       </c>
@@ -21149,7 +21152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A671" s="10" t="s">
         <v>1408</v>
       </c>
@@ -21172,7 +21175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A672" s="10" t="s">
         <v>1411</v>
       </c>
@@ -21195,7 +21198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A673" s="10" t="s">
         <v>1413</v>
       </c>
@@ -21218,7 +21221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A674" s="10" t="s">
         <v>1415</v>
       </c>
@@ -21241,7 +21244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A675" s="10" t="s">
         <v>1417</v>
       </c>
@@ -21264,7 +21267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A676" s="10" t="s">
         <v>1419</v>
       </c>
@@ -21287,7 +21290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A677" s="10" t="s">
         <v>1421</v>
       </c>
@@ -21310,7 +21313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A678" s="10" t="s">
         <v>1424</v>
       </c>
@@ -21333,7 +21336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A679" s="10" t="s">
         <v>1426</v>
       </c>
@@ -21356,7 +21359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A680" s="10" t="s">
         <v>1428</v>
       </c>
@@ -21379,7 +21382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A681" s="10" t="s">
         <v>1430</v>
       </c>
@@ -21402,7 +21405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A682" s="10" t="s">
         <v>1432</v>
       </c>
@@ -21425,7 +21428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A683" s="10" t="s">
         <v>1434</v>
       </c>
@@ -21448,7 +21451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A684" s="10" t="s">
         <v>1436</v>
       </c>
@@ -21471,7 +21474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A685" s="10" t="s">
         <v>1438</v>
       </c>
@@ -21494,7 +21497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A686" s="10" t="s">
         <v>1440</v>
       </c>
@@ -21517,7 +21520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A687" s="10" t="s">
         <v>1443</v>
       </c>
@@ -21540,7 +21543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A688" s="10" t="s">
         <v>1445</v>
       </c>
@@ -21563,7 +21566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A689" s="10" t="s">
         <v>1447</v>
       </c>
@@ -21586,7 +21589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A690" s="10" t="s">
         <v>1449</v>
       </c>
@@ -21609,7 +21612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A691" s="10" t="s">
         <v>1453</v>
       </c>
@@ -21632,7 +21635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A692" s="10" t="s">
         <v>1455</v>
       </c>
@@ -21655,7 +21658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A693" s="10" t="s">
         <v>1457</v>
       </c>
@@ -21678,7 +21681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A694" s="10" t="s">
         <v>1459</v>
       </c>
@@ -21701,7 +21704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A695" s="10" t="s">
         <v>1461</v>
       </c>
@@ -21724,7 +21727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A696" s="10" t="s">
         <v>1463</v>
       </c>
@@ -21747,7 +21750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A697" s="10" t="s">
         <v>1465</v>
       </c>
@@ -21770,7 +21773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A698" s="10" t="s">
         <v>1467</v>
       </c>
@@ -21793,7 +21796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A699" s="10" t="s">
         <v>1470</v>
       </c>
@@ -21816,7 +21819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A700" s="10" t="s">
         <v>1472</v>
       </c>
@@ -21839,7 +21842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A701" s="10" t="s">
         <v>1474</v>
       </c>
@@ -21862,7 +21865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A702" s="10" t="s">
         <v>1476</v>
       </c>
@@ -21885,7 +21888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A703" s="10" t="s">
         <v>1478</v>
       </c>
@@ -21908,7 +21911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A704" s="10" t="s">
         <v>1481</v>
       </c>
@@ -21931,7 +21934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:7" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A705" s="10" t="s">
         <v>1483</v>
       </c>
@@ -21954,7 +21957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A706" s="10" t="s">
         <v>1485</v>
       </c>
@@ -21977,7 +21980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A707" s="10" t="s">
         <v>1488</v>
       </c>
@@ -22000,7 +22003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A708" s="10" t="s">
         <v>1490</v>
       </c>
@@ -22023,7 +22026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A709" s="10" t="s">
         <v>1492</v>
       </c>
@@ -22046,7 +22049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A710" s="10" t="s">
         <v>1494</v>
       </c>
@@ -22069,7 +22072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="39.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A711" s="10" t="s">
         <v>1496</v>
       </c>
@@ -22092,7 +22095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A712" s="10" t="s">
         <v>1498</v>
       </c>
@@ -22116,13 +22119,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G712" xr:uid="{F1D65300-00A7-466B-A236-C60FEC0F2948}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="MA.K.NSO.1.1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:G712" xr:uid="{F1D65300-00A7-466B-A236-C60FEC0F2948}"/>
   <mergeCells count="51">
     <mergeCell ref="G481:G483"/>
     <mergeCell ref="A481:A483"/>
@@ -22131,11 +22128,6 @@
     <mergeCell ref="D481:D483"/>
     <mergeCell ref="E481:E483"/>
     <mergeCell ref="F481:F483"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="F68:F75"/>
     <mergeCell ref="G68:G75"/>
     <mergeCell ref="A58:A67"/>
     <mergeCell ref="C58:C67"/>
@@ -22143,11 +22135,11 @@
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="F58:F67"/>
     <mergeCell ref="G58:G67"/>
-    <mergeCell ref="A47:A57"/>
-    <mergeCell ref="C47:C57"/>
-    <mergeCell ref="D47:D57"/>
-    <mergeCell ref="E47:E57"/>
-    <mergeCell ref="F47:F57"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="F68:F75"/>
     <mergeCell ref="G47:G57"/>
     <mergeCell ref="A36:A46"/>
     <mergeCell ref="C36:C46"/>
@@ -22155,11 +22147,11 @@
     <mergeCell ref="E36:E46"/>
     <mergeCell ref="F36:F46"/>
     <mergeCell ref="G36:G46"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="E26:E35"/>
-    <mergeCell ref="F26:F35"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="C47:C57"/>
+    <mergeCell ref="D47:D57"/>
+    <mergeCell ref="E47:E57"/>
+    <mergeCell ref="F47:F57"/>
     <mergeCell ref="G26:G35"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="C16:C25"/>
@@ -22167,6 +22159,11 @@
     <mergeCell ref="E16:E25"/>
     <mergeCell ref="F16:F25"/>
     <mergeCell ref="G16:G25"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="E26:E35"/>
+    <mergeCell ref="F26:F35"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A15"/>

--- a/data/raw/BEST Math Extract.xlsx
+++ b/data/raw/BEST Math Extract.xlsx
@@ -5817,6 +5817,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5834,24 +5852,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="16" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -6606,8 +6606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D65300-00A7-466B-A236-C60FEC0F2948}">
   <dimension ref="A1:G712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6621,26 +6621,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="1.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -6666,834 +6666,834 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="22"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="22"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="23"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="22"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="22"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="22"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="22"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="22"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="22"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="20"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="23"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="18" t="s">
+      <c r="D26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="22"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="22"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A30" s="19"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="22"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A31" s="19"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="22"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="19"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="22"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="19"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="22"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A34" s="19"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="22"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="20"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="23"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="18" t="s">
+      <c r="D36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="22"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A38" s="19"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="22"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="19"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="22"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A40" s="19"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="19"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="22"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A42" s="19"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="22"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A43" s="19"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="22"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="19"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="22"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="19"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="22"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="20"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="23"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="18" t="s">
+      <c r="D47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="19"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="22"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A49" s="19"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="22"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="19"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="19"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A52" s="19"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="19"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="22"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="19"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="22"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="19"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="22"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A56" s="19"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="22"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="20"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="23"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="18" t="s">
+      <c r="D58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="19"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="22"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A60" s="19"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="22"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="19"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="22"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="19"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="22"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A63" s="19"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="22"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="19"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="22"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A65" s="19"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="22"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="19"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="22"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="20"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="23"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="18" t="s">
+      <c r="D68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="G68" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="19"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="22"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A70" s="19"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="22"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="19"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="22"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A72" s="19"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="22"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A73" s="19"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="22"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
-      <c r="A74" s="19"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="22"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="20"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="23"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="s">
@@ -16811,45 +16811,45 @@
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A481" s="18" t="s">
+      <c r="A481" s="15" t="s">
         <v>1003</v>
       </c>
-      <c r="B481" s="18" t="s">
+      <c r="B481" s="15" t="s">
         <v>1004</v>
       </c>
-      <c r="C481" s="18" t="s">
+      <c r="C481" s="15" t="s">
         <v>994</v>
       </c>
-      <c r="D481" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E481" s="18">
-        <v>912</v>
-      </c>
-      <c r="F481" s="18" t="s">
+      <c r="D481" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E481" s="15">
+        <v>912</v>
+      </c>
+      <c r="F481" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="G481" s="21" t="s">
+      <c r="G481" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A482" s="19"/>
-      <c r="B482" s="19"/>
-      <c r="C482" s="19"/>
-      <c r="D482" s="19"/>
-      <c r="E482" s="19"/>
-      <c r="F482" s="19"/>
-      <c r="G482" s="22"/>
+      <c r="A482" s="16"/>
+      <c r="B482" s="16"/>
+      <c r="C482" s="16"/>
+      <c r="D482" s="16"/>
+      <c r="E482" s="16"/>
+      <c r="F482" s="16"/>
+      <c r="G482" s="13"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A483" s="20"/>
-      <c r="B483" s="20"/>
-      <c r="C483" s="20"/>
-      <c r="D483" s="20"/>
-      <c r="E483" s="20"/>
-      <c r="F483" s="20"/>
-      <c r="G483" s="23"/>
+      <c r="A483" s="17"/>
+      <c r="B483" s="17"/>
+      <c r="C483" s="17"/>
+      <c r="D483" s="17"/>
+      <c r="E483" s="17"/>
+      <c r="F483" s="17"/>
+      <c r="G483" s="14"/>
     </row>
     <row r="484" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A484" s="10" t="s">
@@ -22121,13 +22121,38 @@
   </sheetData>
   <autoFilter ref="A3:G712" xr:uid="{F1D65300-00A7-466B-A236-C60FEC0F2948}"/>
   <mergeCells count="51">
-    <mergeCell ref="G481:G483"/>
-    <mergeCell ref="A481:A483"/>
-    <mergeCell ref="B481:B483"/>
-    <mergeCell ref="C481:C483"/>
-    <mergeCell ref="D481:D483"/>
-    <mergeCell ref="E481:E483"/>
-    <mergeCell ref="F481:F483"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="C4:C15"/>
+    <mergeCell ref="D4:D15"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="F4:F15"/>
+    <mergeCell ref="G4:G15"/>
+    <mergeCell ref="G26:G35"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="E16:E25"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="G16:G25"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="E26:E35"/>
+    <mergeCell ref="F26:F35"/>
+    <mergeCell ref="G47:G57"/>
+    <mergeCell ref="A36:A46"/>
+    <mergeCell ref="C36:C46"/>
+    <mergeCell ref="D36:D46"/>
+    <mergeCell ref="E36:E46"/>
+    <mergeCell ref="F36:F46"/>
+    <mergeCell ref="G36:G46"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="C47:C57"/>
+    <mergeCell ref="D47:D57"/>
+    <mergeCell ref="E47:E57"/>
+    <mergeCell ref="F47:F57"/>
     <mergeCell ref="G68:G75"/>
     <mergeCell ref="A58:A67"/>
     <mergeCell ref="C58:C67"/>
@@ -22140,38 +22165,13 @@
     <mergeCell ref="D68:D75"/>
     <mergeCell ref="E68:E75"/>
     <mergeCell ref="F68:F75"/>
-    <mergeCell ref="G47:G57"/>
-    <mergeCell ref="A36:A46"/>
-    <mergeCell ref="C36:C46"/>
-    <mergeCell ref="D36:D46"/>
-    <mergeCell ref="E36:E46"/>
-    <mergeCell ref="F36:F46"/>
-    <mergeCell ref="G36:G46"/>
-    <mergeCell ref="A47:A57"/>
-    <mergeCell ref="C47:C57"/>
-    <mergeCell ref="D47:D57"/>
-    <mergeCell ref="E47:E57"/>
-    <mergeCell ref="F47:F57"/>
-    <mergeCell ref="G26:G35"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="C16:C25"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="F16:F25"/>
-    <mergeCell ref="G16:G25"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="E26:E35"/>
-    <mergeCell ref="F26:F35"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="C4:C15"/>
-    <mergeCell ref="D4:D15"/>
-    <mergeCell ref="E4:E15"/>
-    <mergeCell ref="F4:F15"/>
-    <mergeCell ref="G4:G15"/>
+    <mergeCell ref="G481:G483"/>
+    <mergeCell ref="A481:A483"/>
+    <mergeCell ref="B481:B483"/>
+    <mergeCell ref="C481:C483"/>
+    <mergeCell ref="D481:D483"/>
+    <mergeCell ref="E481:E483"/>
+    <mergeCell ref="F481:F483"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.cpalms.org/" xr:uid="{366D235F-2F50-4071-BB84-A636DDF6C112}"/>
